--- a/rubric.xlsx
+++ b/rubric.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wombat/nextcloud/bama/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wombat/nextcloud/bama/git-bama/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6274DF67-88B1-5D43-9D15-BC0D520C61DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A4A96B-9465-E747-B77B-0D87BF256ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="28660" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -140,12 +140,6 @@
     <t xml:space="preserve">Nachvollziehbare Darstellung der Datenauswertung und der  Ergebnisse, mehr oder weniger zur Fragestellung passend. </t>
   </si>
   <si>
-    <t xml:space="preserve">Die Datenauswertung wird gut nachvollziehbar beschrieben. Die Ergebnisse  werden  nachvollziehbar dargestellt. </t>
-  </si>
-  <si>
-    <t>Die Datenauswertung erfolgt unter Nutzung fortgeschrittener Methoden und wird sehr schlüssig dargelegt. Die relevanten Ergebnisse und Auffälligkeiten werden sehr gut nachvollziehbar und übersichtlich dargestellt</t>
-  </si>
-  <si>
     <t>Die Ergebnisse, Auffälligkeiten und möglichen Abweichungen von den Erwartungen werden benannt und in Ansätzen diskutiert und reflektiert.</t>
   </si>
   <si>
@@ -179,10 +173,16 @@
     <t>einigermaßen nachvollziehbar dargestellt, es gibt größere  Kritikpunkte an der Datenauswertung</t>
   </si>
   <si>
-    <t>Stand: 11. Februar 2025</t>
-  </si>
-  <si>
     <t>Die folgenden Formulierungen geben eine grobe Orientierung, worauf ich bei der Bewertung achte. Außerdem sieht man, wie die verschiedenen Kriterienbereiche gewichtet werden.</t>
+  </si>
+  <si>
+    <t>Stand: 28. Februar 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Datenauswertung wird gut nachvollziehbar beschrieben. Die Ergebnisse  werden  nachvollziehbar und unter Verwendung von Grafiken dargestellt. </t>
+  </si>
+  <si>
+    <t>Die Datenauswertung erfolgt unter Nutzung fortgeschrittener Methoden und wird sehr schlüssig dargelegt. Die relevanten Ergebnisse und Auffälligkeiten werden sehr gut nachvollziehbar und übersichtlich dargestellt. Es werden adäquate Grafiken verwendet.</t>
   </si>
 </sst>
 </file>
@@ -662,7 +662,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -684,7 +684,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" s="4"/>
     </row>
@@ -703,7 +703,7 @@
     </row>
     <row r="5" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="21"/>
@@ -737,7 +737,7 @@
     </row>
     <row r="7" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
@@ -758,7 +758,7 @@
     </row>
     <row r="8" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>19</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="9" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>13</v>
@@ -798,21 +798,21 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="5">
@@ -821,19 +821,19 @@
     </row>
     <row r="11" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="5">
@@ -842,10 +842,10 @@
     </row>
     <row r="12" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>6</v>
